--- a/Documentatie/Urenverantwoording/UrenVerantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/UrenVerantwoording.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Taken verdeling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F9DB7F-44F1-47A4-B40F-4C11109F465B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A510EE4-E50C-4611-BA0E-B54761D7E3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Jesse</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Totaal</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
   <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,16 +490,52 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>3.5</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>2.5</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -513,20 +552,20 @@
         <v>15</v>
       </c>
       <c r="B10" s="1">
-        <f xml:space="preserve"> SUM(B5:B9)</f>
-        <v>0</v>
+        <f xml:space="preserve"> SUM(B6:B9)</f>
+        <v>3.5</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ref="C10:E10" si="0" xml:space="preserve"> SUM(C5:C9)</f>
-        <v>0</v>
+        <f xml:space="preserve"> SUM(C6:C9)</f>
+        <v>2.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f xml:space="preserve"> SUM(D6:D9)</f>
+        <v>2.5</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f xml:space="preserve"> SUM(E6:E9)</f>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Documentatie/Urenverantwoording/UrenVerantwoording.xlsx
+++ b/Documentatie/Urenverantwoording/UrenVerantwoording.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Taken verdeling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perij\Documents\GitHub\Project-digitale-besturing\Documentatie\Urenverantwoording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A510EE4-E50C-4611-BA0E-B54761D7E3F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98BA596-C135-48EF-B4C1-090C63E5AB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Jesse</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A3:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,19 +528,31 @@
         <v>3.5</v>
       </c>
       <c r="C7">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E7">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -553,19 +565,19 @@
       </c>
       <c r="B10" s="1">
         <f xml:space="preserve"> SUM(B6:B9)</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <f xml:space="preserve"> SUM(C6:C9)</f>
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1">
         <f xml:space="preserve"> SUM(D6:D9)</f>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E10" s="1">
         <f xml:space="preserve"> SUM(E6:E9)</f>
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
